--- a/dataset/lg/sampangimanna.xlsx
+++ b/dataset/lg/sampangimanna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీమానినీమనోహర! 
 సోమార్కవిశాలనేత్ర! సురనుతగాత్రా!
@@ -477,32 +474,29 @@
 శ్యామా! ననుఁ బ్రోవు మన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('సో', 'U'), ('మా', 'U'), ('ర్క', '|'), ('వి', '|'), ('శా', 'U'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('సు', '|'), ('ర', '|'), ('ను', '|'), ('త', '|'), ('గా', 'U'), ('త్రా', 'U'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('నీ', 'U'), ('ల', '|'), ('మ', '|'), ('ణీ', 'U'), ('శ్యా', 'U'), ('మా', 'U'), ('న', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>పరమానందయతీంద్రుఁడఁ 
 బరిపూర్ణుఁడ వైననీదుభక్తుఁడ నెలమిన్‌
@@ -510,32 +504,29 @@
 శరణాగతసుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('య', '|'), ('తీం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('బ', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తు', '|'), ('డ', '|'), ('నె', '|'), ('ల', '|'), ('మిన్', 'U'), ('వి', '|'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('నొ', '|'), ('క', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ము', '|'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('త', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>నినుఁజెప్పనేర నైనను 
 ఘన మగునుతి గనుక కూరగాయకవిత్వం
@@ -543,32 +534,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ర', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('తి', '|'), ('గ', '|'), ('ను', '|'), ('క', '|'), ('కూ', 'U'), ('ర', '|'), ('గా', 'U'), ('య', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బ', '|'), ('న', '|'), ('క', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('గై', 'U'), ('కొ', '|'), ('ను', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>జిలిబిలిమాటలఁ బలికెడి 
 యలశిశువును దండ్రి ముద్దులాడెడుపగిదిన్‌
@@ -576,32 +564,29 @@
 సలలితకాంతిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('జి', '|'), ('లి', '|'), ('బి', '|'), ('లి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('బ', '|'), ('లి', '|'), ('కె', '|'), ('డి', '|'), ('య', '|'), ('ల', '|'), ('శి', '|'), ('శు', '|'), ('వు', '|'), ('ను', '|'), ('దం', 'U'), ('డ్రి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('ప', '|'), ('గి', '|'), ('దిన్', 'U'), ('బ', '|'), ('లి', '|'), ('కె', '|'), ('ద', '|'), ('న', '|'), ('ను', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('పు', '|'), ('ము', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('కాం', 'U'), ('తి', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>తత్త్వజ్ఞానానంద మ
 హత్త్వము రచియింతు నీదయన్‌భువిఁ గృతకృ
@@ -609,32 +594,29 @@
 సాత్త్వికపరయోగు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞా', 'U'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('ద', '|'), ('య', 'U'), ('న్భు', '|'), ('వి', '|'), ('గృ', '|'), ('త', '|'), ('కృ', 'U'), ('త్య', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('ని', 'U'), ('త్య', 'U'), ('త్వ', '|'), ('ము', '|'), ('గా', 'U'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('యో', 'U'), ('గు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>తత్త్వము దా రెఱుఁగక బ్ర 
 హ్మత్వ ముపచరించువారిమాటలు ధృతకో
@@ -642,32 +624,29 @@
 స్సత్త్వము లగుఁ గన్న విన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('దా', 'U'), ('రె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', 'U'), ('బ్ర', 'U'), ('హ్మ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('ధృ', '|'), ('త', '|'), ('కో', 'U'), ('శ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('యు', '|'), ('ని', 'U'), ('స్స', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('ల', '|'), ('గు', '|'), ('గ', 'U'), ('న్న', '|'), ('వి', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>వినవలె సద్గురువులచేఁ 
 గనవలె నరచేతియుసిరికాయయుఁబలెఁ దా
@@ -675,32 +654,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('చే', 'U'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ర', '|'), ('చే', 'U'), ('తి', '|'), ('యు', '|'), ('సి', '|'), ('రి', '|'), ('కా', 'U'), ('య', '|'), ('యు', '|'), ('బ', '|'), ('లె', '|'), ('దా', 'U'), ('మ', '|'), ('న', '|'), ('వ', '|'), ('లె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('దా', 'U'), ('నై', 'U'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>తాటాకులలో వ్రాసిన 
 మాటలనా ముక్తి పాడిమర్మముఁ దెలియున్‌?
@@ -708,32 +684,29 @@
 సాటి యగునె యెచట నున్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('టా', 'U'), ('కు', '|'), ('ల', '|'), ('లో', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('నా', 'U'), ('ము', 'U'), ('క్తి', '|'), ('పా', 'U'), ('డి', '|'), ('మ', '|'), ('ర్మ', '|'), ('ము', '|'), ('దె', '|'), ('లి', '|'), ('యు', 'U'), ('న్సూ', 'U'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('రా', 'U'), ('జ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('సా', 'U'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('నె', '|'), ('యె', '|'), ('చ', '|'), ('ట', '|'), ('ను', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>సన్న్యాసుల మని శాస్త్రో 
 పన్యాసముసేయ నందు ఫలమేమి? మన
@@ -741,32 +714,29 @@
 యాసన్న్యాసము కూటికన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్న్యా', 'U'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('శా', 'U'), ('స్త్రో', 'U'), ('ప', 'U'), ('న్యా', 'U'), ('స', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('నం', 'U'), ('దు', '|'), ('ఫ', '|'), ('ల', '|'), ('మే', 'U'), ('మి', '|'), ('మ', '|'), ('న', 'U'), ('స్స', 'U'), ('న్న్యా', 'U'), ('స', '|'), ('ము', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('ని', '|'), ('యా', 'U'), ('స', 'U'), ('న్న్యా', 'U'), ('స', '|'), ('ము', '|'), ('కూ', 'U'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>గామువలె సంచరించినఁ 
 బామువలెన్‌ గుహల నున్న బంధము తెగునా?
@@ -774,32 +744,29 @@
 సామర్థ్యము గూడకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('ము', '|'), ('వ', '|'), ('లె', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('బా', 'U'), ('ము', '|'), ('వ', '|'), ('లెన్', 'U'), ('గు', '|'), ('హ', '|'), ('ల', '|'), ('ను', 'U'), ('న్న', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('తె', '|'), ('గు', '|'), ('నా', 'U'), ('దీ', 'U'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('ప', '|'), ('రు', '|'), ('ని', '|'), ('గ', '|'), ('ల', '|'), ('సె', '|'), ('డి', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ము', '|'), ('గూ', 'U'), ('డ', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>వాటమగురీతి ముక్తిక
 వాటము భేదింప నెట్లు వశపడుఁ దనలో
@@ -807,32 +774,29 @@
 చ్చాటన మొగిఁ జేయకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ట', '|'), ('మ', '|'), ('గు', '|'), ('రీ', 'U'), ('తి', '|'), ('ము', 'U'), ('క్తి', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('ము', '|'), ('భే', 'U'), ('దిం', 'U'), ('ప', '|'), ('నె', 'U'), ('ట్లు', '|'), ('వ', '|'), ('శ', '|'), ('ప', '|'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('లో', 'U'), ('నా', 'U'), ('టు', '|'), ('కొ', '|'), ('ను', '|'), ('మా', 'U'), ('య', '|'), ('ద', '|'), ('గ', '|'), ('ను', 'U'), ('చ్చా', 'U'), ('ట', '|'), ('న', '|'), ('మొ', '|'), ('గి', '|'), ('జే', 'U'), ('య', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>ఎక్కటిచదువులు బోధలు 
 మక్కువ ననుభవములేనిమాటలు వినఁగాఁ
@@ -840,32 +804,29 @@
 జక్కులసంతోష మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('క్క', '|'), ('టి', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('లు', '|'), ('బో', 'U'), ('ధ', '|'), ('లు', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('గా', 'U'), ('బు', 'U'), ('క్కి', '|'), ('టి', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('కై', 'U'), ('జ', 'U'), ('క్కు', '|'), ('ల', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>వాలాయము గురుకృపచే 
 శ్రీలీలల రాజయోగ సిద్ధుఁడు గాఁగా
@@ -873,32 +834,29 @@
 జాలింబడ సుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('లా', 'U'), ('య', '|'), ('ము', '|'), ('గు', '|'), ('రు', '|'), ('కృ', '|'), ('ప', '|'), ('చే', 'U'), ('శ్రీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డు', '|'), ('గా', 'U'), ('గా', 'U'), ('నే', 'U'), ('లా', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('జా', 'U'), ('లిం', 'U'), ('బ', '|'), ('డ', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>శ్రీరాజయోగవిద్యా 
 పారీణున కబ్బుఁ గాక పరమసుఖం బీ
@@ -906,32 +864,29 @@
 చారుల కది దొరక దన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('పా', 'U'), ('రీ', 'U'), ('ణు', '|'), ('న', '|'), ('క', 'U'), ('బ్బు', '|'), ('గా', 'U'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బీ', 'U'), ('ధా', 'U'), ('ర', '|'), ('ణి', '|'), ('హ', '|'), ('ఠ', '|'), ('ల', '|'), ('య', '|'), ('మం', 'U'), ('త్ర', '|'), ('వి', '|'), ('చా', 'U'), ('రు', '|'), ('ల', '|'), ('క', '|'), ('ది', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>మాయాయోగతపంబుల 
 నాయాసముతోడఁ జేయ నబ్బును దత్త్వం
@@ -939,32 +894,29 @@
 జాయలనా సుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('యా', 'U'), ('యో', 'U'), ('గ', '|'), ('త', '|'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('నా', 'U'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('బ్బు', '|'), ('ను', '|'), ('ద', 'U'), ('త్త్వం', 'U'), ('బా', 'U'), ('యె', 'U'), ('న్ని', '|'), ('కే', 'U'), ('ల', '|'), ('పె', '|'), ('ట్టన్', 'U'), ('జా', 'U'), ('య', '|'), ('ల', '|'), ('నా', 'U'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ఒండొరులఁ గూడి గొణఁగుచు 
 దండము లిడికొనుచు బోడితలలుం దామున్‌
@@ -972,32 +924,29 @@
 చండితనం బధిక మన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ఒం', 'U'), ('డొ', '|'), ('రు', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('గొ', '|'), ('ణ', '|'), ('గు', '|'), ('చు', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('లి', '|'), ('డి', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('బో', 'U'), ('డి', '|'), ('త', '|'), ('ల', '|'), ('లుం', 'U'), ('దా', 'U'), ('మున్', 'U'), ('నిం', 'U'), ('డి', '|'), ('రి', '|'), ('మ', '|'), ('హి', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('న', '|'), ('హి', '|'), ('చం', 'U'), ('డి', '|'), ('త', '|'), ('నం', 'U'), ('బ', '|'), ('ధి', '|'), ('క', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>వానలు పస పైరుల కభి 
 మానము పస వనితలకును మఱి యోగులకున్‌
@@ -1005,32 +954,29 @@
 జ్ఞానము పస సుప్రసన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('న', '|'), ('లు', '|'), ('ప', '|'), ('స', '|'), ('పై', 'U'), ('రు', '|'), ('ల', '|'), ('క', '|'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('ప', '|'), ('స', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('మ', '|'), ('ఱి', '|'), ('యో', 'U'), ('గు', '|'), ('ల', '|'), ('కున్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('ప', '|'), ('స', '|'), ('యా', 'U'), ('మీ', 'U'), ('ద', '|'), ('ట', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('ప', '|'), ('స', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>మాయ యనఁగ వే ఱై యొక 
 తోయము లే దయ్య తన్నుఁ దోఁపనిచోటే
@@ -1038,32 +984,29 @@
 చాయం జెడిపోవు నన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('య', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('వే', 'U'), ('ఱై', 'U'), ('యొ', '|'), ('క', '|'), ('తో', 'U'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('ద', 'U'), ('య్య', '|'), ('త', 'U'), ('న్ను', '|'), ('దో', 'U'), ('ప', '|'), ('ని', '|'), ('చో', 'U'), ('టే', 'U'), ('మా', 'U'), ('య', '|'), ('తా', 'U'), ('రో', 'U'), ('సి', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చా', 'U'), ('యం', 'U'), ('జె', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>తామరసాక్షున కైనన్‌ 
 శ్రీమించినసురల కైన సిద్ధుల కైన\న్‌
@@ -1071,32 +1014,29 @@
 సామాన్యమె! కఠిన మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షు', '|'), ('న', '|'), ('కై', 'U'), ('నన్', 'U'), ('శ్రీ', 'U'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('ర', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('కై', 'U'), ('నన్', 'U'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('వ', '|'), ('శ', '|'), ('మా', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్య', '|'), ('మె', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>నిండికొను నిట్టిమాయ ప్ర 
 చండగతిం గప్పుకొన్న సజ్జనుల బుధుల్‌
@@ -1104,32 +1044,29 @@
 షండులవాక్యములు విన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('డి', '|'), ('కొ', '|'), ('ను', '|'), ('ని', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('య', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('గ', '|'), ('తిం', 'U'), ('గ', 'U'), ('ప్పు', '|'), ('కొ', 'U'), ('న్న', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('బు', '|'), ('ధుల్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('పా', 'U'), ('షం', 'U'), ('డు', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('లు', '|'), ('వి', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>మండితపూర్ణసుధాకర 
 మండలశతకోటికాంతిమహనీయుండై
@@ -1137,32 +1074,29 @@
 చండగతి న్వెలుఁగు నన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('డి', '|'), ('త', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ర', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('కాం', 'U'), ('తి', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యుం', 'U'), ('డై', 'U'), ('నిం', 'U'), ('డి', '|'), ('త', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('యో', 'U'), ('గి', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('గ', '|'), ('తి', 'U'), ('న్వె', '|'), ('లు', '|'), ('గు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>పేరుకొనుమంత్రవాదము 
 భారం బది కుక్కనోటిపాఁతై రోఁతై
@@ -1170,32 +1104,29 @@
 జాఱఁగవలె సుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('పే', 'U'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('మం', 'U'), ('త్ర', '|'), ('వా', 'U'), ('ద', '|'), ('ము', '|'), ('భా', 'U'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('కు', 'U'), ('క్క', '|'), ('నో', 'U'), ('టి', '|'), ('పా', 'U'), ('తై', 'U'), ('రో', 'U'), ('తై', 'U'), ('పో', 'U'), ('రై', 'U'), ('యా', 'U'), ('రై', 'U'), ('దూ', 'U'), ('ఱై', 'U'), ('జా', 'U'), ('ఱ', '|'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>బూటకములు వేషంబులు 
 నాటకములు మంత్రతంత్రనటనలు మిథ్యా
@@ -1203,32 +1134,29 @@
 జాటము లివి యేటి కన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('బూ', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('న', '|'), ('ట', '|'), ('న', '|'), ('లు', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('పే', 'U'), ('టి', '|'), ('క', '|'), ('ల', '|'), ('వి', '|'), ('యో', 'U'), ('గి', '|'), ('కి', '|'), ('జం', 'U'), ('జా', 'U'), ('ట', '|'), ('ము', '|'), ('లి', '|'), ('వి', '|'), ('యే', 'U'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>చలపట్టియు హఠయోగముఁ 
 దలపెట్టిన వట్టిగొడ్డుతాఁకట్టింతే
@@ -1236,32 +1164,29 @@
 సలుగా కిందేమియున్నె! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('యు', '|'), ('హ', '|'), ('ఠ', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('వ', 'U'), ('ట్టి', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('తా', 'U'), ('క', 'U'), ('ట్టిం', 'U'), ('తే', 'U'), ('య', '|'), ('ల', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('ద', '|'), ('డి', '|'), ('యా', 'U'), ('స', '|'), ('లు', '|'), ('గా', 'U'), ('కిం', 'U'), ('దే', 'U'), ('మి', '|'), ('యు', 'U'), ('న్నె', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>సంతతయోగానందా 
 నంతసుఖాంభోధి నలరు నాతనిభాగ్యం
@@ -1269,32 +1194,29 @@
 సంతోషము జగతి నెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('త', '|'), ('త', '|'), ('యో', 'U'), ('గా', 'U'), ('నం', 'U'), ('దా', 'U'), ('నం', 'U'), ('త', '|'), ('సు', '|'), ('ఖాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బిం', 'U'), ('తిం', 'U'), ('త', '|'), ('న', '|'), ('ద', '|'), ('ర', '|'), ('మా', 'U'), ('ఘ', '|'), ('న', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('ము', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('నె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>నావయగు\న్‌ భవజలధికిఁ 
 ద్రోవయగు\న్‌ ముక్తికాంతతోఁ గూడుటకు\న్‌
@@ -1302,32 +1224,29 @@
 క్షావహ మగుయోగ మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('వ', '|'), ('య', '|'), ('గున్', 'U'), ('భ', '|'), ('వ', '|'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('కి', '|'), ('ద్రో', 'U'), ('వ', '|'), ('య', '|'), ('గున్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కాం', 'U'), ('త', '|'), ('తో', 'U'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('కున్', 'U'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('ని', '|'), ('జ', '|'), ('దే', 'U'), ('శి', '|'), ('క', '|'), ('ర', 'U'), ('క్షా', 'U'), ('వ', '|'), ('హ', '|'), ('మ', '|'), ('గు', '|'), ('యో', 'U'), ('గ', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>అభ్యుదయంబుగ నీయో
 గాభ్యాసము సేయవలయు నతులితలీలన్‌
@@ -1335,32 +1254,29 @@
 సభ్యుల కది మార్గ మన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('భ్యు', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('నీ', 'U'), ('యో', 'U'), ('గా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', '|'), ('తు', '|'), ('లి', '|'), ('త', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ల', 'U'), ('భ్యు', '|'), ('డ', '|'), ('గుం', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('త్ము', '|'), ('డు', '|'), ('స', 'U'), ('భ్యు', '|'), ('ల', '|'), ('క', '|'), ('ది', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>వ్యక్తావ్యక్తపదం బఁట 
 ముక్తఁట గురుసేవ తనకు మును లేదఁట యే
@@ -1368,32 +1284,29 @@
 శక్తులకును సుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('వ్య', 'U'), ('క్తా', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('ప', '|'), ('దం', 'U'), ('బ', '|'), ('ట', '|'), ('ము', 'U'), ('క్త', '|'), ('ట', '|'), ('గు', '|'), ('రు', '|'), ('సే', 'U'), ('వ', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('ము', '|'), ('ను', '|'), ('లే', 'U'), ('ద', '|'), ('ట', '|'), ('యే', 'U'), ('యు', 'U'), ('క్తి', '|'), ('ని', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('శ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>భావమునం గననేరని 
 జీవుల కిది బీరకాయ చి క్కగుఁ దెలియం
@@ -1401,32 +1314,29 @@
 క్షావిధి యొనఁగూడకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('వ', '|'), ('ము', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కి', '|'), ('ది', '|'), ('బీ', 'U'), ('ర', '|'), ('కా', 'U'), ('య', '|'), ('చి', 'U'), ('క్క', '|'), ('గు', '|'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గా', 'U'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధి', '|'), ('యొ', '|'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>బోధింపఁదగినగురువుల 
 శోధించి తదంఘ్రిఁ జేరి సుస్థిరమతి యై
@@ -1434,32 +1344,29 @@
 సాధించిన ముక్తుఁడౌను సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('ద', '|'), ('గి', '|'), ('న', '|'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('త', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('జే', 'U'), ('రి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('యై', 'U'), ('యా', 'U'), ('ధే', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('క్తు', '|'), ('డౌ', 'U'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>సాధింపఁగ నిరతులకున్‌ 
 బోధింపఁగ నేర్పు గల్గుపుణ్యాత్ముల యా
@@ -1467,32 +1374,29 @@
 సాధారణవిబుధు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గ', '|'), ('ని', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('కున్', 'U'), ('బో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ర్పు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('యా', 'U'), ('యీ', 'U'), ('ధ', '|'), ('ర', '|'), ('గ', '|'), ('ల', '|'), ('రొ', '|'), ('క', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('సా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ణ', '|'), ('వి', '|'), ('బు', '|'), ('ధు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>అనుభవము లేనిగురుచే 
 వినునతనికి సంశయంబు వీడునె చిత్రా
@@ -1500,32 +1404,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('చే', 'U'), ('వి', '|'), ('ను', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('సం', 'U'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('వీ', 'U'), ('డు', '|'), ('నె', '|'), ('చి', 'U'), ('త్రా', 'U'), ('ర్కు', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('ద', '|'), ('మ', '|'), ('ము', '|'), ('వా', 'U'), ('యు', '|'), ('నె', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>బరువఁట యెవరికి గురువో 
 హరిహరి తనుఁ దెలియలేనియాతఁడు గురువా?
@@ -1533,32 +1434,29 @@
 శరణాగతసుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('రు', '|'), ('వ', '|'), ('ట', '|'), ('యె', '|'), ('వ', '|'), ('రి', '|'), ('కి', '|'), ('గు', '|'), ('రు', '|'), ('వో', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('రి', '|'), ('త', '|'), ('ను', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('లే', 'U'), ('ని', '|'), ('యా', 'U'), ('త', '|'), ('డు', '|'), ('గు', '|'), ('రు', '|'), ('వా', 'U'), ('గు', '|'), ('రు', '|'), ('వ', '|'), ('న', '|'), ('గా', 'U'), ('సి', 'U'), ('గ్గు', '|'), ('గ', '|'), ('దే', 'U'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('త', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>నేరనిగురుబోధలు సం 
 సారము లై కూనలమ్మసంకీర్తన లై
@@ -1566,32 +1464,29 @@
 స్సారములై పోవు నన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('ర', '|'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('బో', 'U'), ('ధ', '|'), ('లు', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లై', 'U'), ('కూ', 'U'), ('న', '|'), ('ల', 'U'), ('మ్మ', '|'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లై', 'U'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('లై', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('ని', 'U'), ('స్సా', 'U'), ('ర', '|'), ('ము', '|'), ('లై', 'U'), ('పో', 'U'), ('వు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>బూటకపుయోగి నెఱుఁగక 
 పాటింతురు డబ్బుఁ జూచి పస లేకున్న\న్‌
@@ -1599,32 +1494,29 @@
 జాటింతురు లోకు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('బూ', 'U'), ('ట', '|'), ('క', '|'), ('పు', '|'), ('యో', 'U'), ('గి', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('పా', 'U'), ('టిం', 'U'), ('తు', '|'), ('రు', '|'), ('డ', 'U'), ('బ్బు', '|'), ('జూ', 'U'), ('చి', '|'), ('ప', '|'), ('స', '|'), ('లే', 'U'), ('కు', '|'), ('న్నన్', 'U'), ('దా', 'U'), ('టో', 'U'), ('ట', '|'), ('ని', '|'), ('జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('జా', 'U'), ('టిం', 'U'), ('తు', '|'), ('రు', '|'), ('లో', 'U'), ('కు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>కల్ల యగుజ్ఞాన మేలా 
 చెల్లనికా సెచట నైనఁ జెల్లనికాసే
@@ -1632,32 +1524,29 @@
 సల్లలితజ్ఞాని యెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్ల', '|'), ('య', '|'), ('గు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మే', 'U'), ('లా', 'U'), ('చె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కా', 'U'), ('సె', '|'), ('చ', '|'), ('ట', '|'), ('నై', 'U'), ('న', '|'), ('జె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కా', 'U'), ('సే', 'U'), ('తె', 'U'), ('ల్ల', '|'), ('మి', '|'), ('గ', '|'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('స', 'U'), ('ల్ల', '|'), ('లి', '|'), ('త', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('యె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>గాడిదవలె బూడిదఁ బొ 
 ర్లాడుచుఁ గొక్కెరయుఁ బోలె ధ్యానము సే సే
@@ -1665,32 +1554,29 @@
 జాడలు ఘను లెంచరన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('డి', '|'), ('ద', '|'), ('వ', '|'), ('లె', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('బొ', 'U'), ('ర్లా', 'U'), ('డు', '|'), ('చు', '|'), ('గొ', 'U'), ('క్కె', '|'), ('ర', '|'), ('యు', '|'), ('బో', 'U'), ('లె', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('సే', 'U'), ('బే', 'U'), ('డి', '|'), ('ద', '|'), ('పు', '|'), ('గ', '|'), ('ప', '|'), ('ట', '|'), ('యో', 'U'), ('గు', '|'), ('ల', '|'), ('జా', 'U'), ('డ', '|'), ('లు', '|'), ('ఘ', '|'), ('ను', '|'), ('లెం', 'U'), ('చ', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>కీడొసఁగెడు గురు డేలా 
 గాడిదవాలంబుఁ బట్టి ఘననదు లీఁద\న్‌
@@ -1698,32 +1584,29 @@
 జాడింపదె ఱొమ్ముఁ దన్ని సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('కీ', 'U'), ('డొ', '|'), ('స', '|'), ('గె', '|'), ('డు', '|'), ('గు', '|'), ('రు', '|'), ('డే', 'U'), ('లా', 'U'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('వా', 'U'), ('లం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('న', '|'), ('దు', '|'), ('లీ', 'U'), ('దన్', 'U'), ('గూ', 'U'), ('డు', '|'), ('నె', '|'), ('గుం', 'U'), ('డె', '|'), ('లు', '|'), ('ప', '|'), ('గు', '|'), ('ల', '|'), ('గ', '|'), ('జా', 'U'), ('డిం', 'U'), ('ప', '|'), ('దె', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('ద', 'U'), ('న్ని', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>అంగం బెఱుఁగరు ముక్తి తె
 ఱంగెఱుఁగరు కపటధూర్తరావణవేషుల్‌
@@ -1731,32 +1614,29 @@
 సంగతి దుర్బోధ లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('గం', 'U'), ('బె', '|'), ('ఱు', '|'), ('గ', '|'), ('రు', '|'), ('ము', 'U'), ('క్తి', '|'), ('తె', '|'), ('ఱం', 'U'), ('గె', '|'), ('ఱు', '|'), ('గ', '|'), ('రు', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('వే', 'U'), ('షుల్', 'U'), ('దొం', 'U'), ('గ', '|'), ('ల', '|'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('దు', 'U'), ('ర్బో', 'U'), ('ధ', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>చేతోగతిఁ దము నెఱిఁగిన 
 యాతద్‌జ్ఞులు భువిని జనుల నందఱ సరిగాఁ
@@ -1764,32 +1644,29 @@
 జాతుర్యధురీణు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('తో', 'U'), ('గ', '|'), ('తి', '|'), ('ద', '|'), ('ము', '|'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('యా', 'U'), ('త', 'U'), ('ద్జ్ఞు', '|'), ('లు', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>వచ్చినవాసనవెంబడి 
 విచ్చలవిడి యోగివరుఁడు విహరించినవాఁ
@@ -1797,32 +1674,29 @@
 సచ్చిన్మయు నంట దన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డి', '|'), ('యో', 'U'), ('గి', '|'), ('వ', '|'), ('రు', '|'), ('డు', '|'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('డె', 'U'), ('చ్చ', '|'), ('ట', '|'), ('నే', 'U'), ('క్రి', '|'), ('య', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('స', 'U'), ('చ్చి', 'U'), ('న్మ', '|'), ('యు', '|'), ('నం', 'U'), ('ట', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>విత్తమదమత్తు లాయత 
 చిత్తభ్రమ లెఱుఁగలేరు చిత్పురుషుని దా
@@ -1830,32 +1704,29 @@
 సత్తముఁడై యెఱుఁగు నన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్త', '|'), ('మ', '|'), ('ద', '|'), ('మ', 'U'), ('త్తు', '|'), ('లా', 'U'), ('య', '|'), ('త', '|'), ('చి', 'U'), ('త్త', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('చి', 'U'), ('త్పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('దా', 'U'), ('ను', 'U'), ('త్త', '|'), ('ము', '|'), ('డి', '|'), ('త', '|'), ('డ', '|'), ('ని', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('స', 'U'), ('త్త', '|'), ('ము', '|'), ('డై', 'U'), ('యె', '|'), ('ఱు', '|'), ('గు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>తనవాసనయెట్లుండిన 
 ఘనయోగికి బంధవృత్తి గానేరదు వాఁ
@@ -1863,32 +1734,29 @@
 సనుఁ డై మరి పుట్టఁ డన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('యె', 'U'), ('ట్లుం', 'U'), ('డి', '|'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('యో', 'U'), ('గి', '|'), ('కి', '|'), ('బం', 'U'), ('ధ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('గా', 'U'), ('నే', 'U'), ('ర', '|'), ('దు', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('క', '|'), ('త', '|'), ('న', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('స', '|'), ('ను', '|'), ('డై', 'U'), ('మ', '|'), ('రి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>క్రమమున సుఖదుఃఖంబులు 
 కమలిన నుతినింద లాదిగాఁ గలయవియా
@@ -1896,32 +1764,29 @@
 సముఁడై వర్తించు నన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('సు', '|'), ('ఖ', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('లు', '|'), ('క', '|'), ('మ', '|'), ('లి', '|'), ('న', '|'), ('ను', '|'), ('తి', '|'), ('నిం', 'U'), ('ద', '|'), ('లా', 'U'), ('ది', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('వి', '|'), ('యా', 'U'), ('య', '|'), ('మి', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డ', 'U'), ('న్ని', 'U'), ('క్రి', '|'), ('య', '|'), ('లం', 'U'), ('స', '|'), ('ము', '|'), ('డై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>తలకొని దుఃఖము రానీ 
 వలనొప్పఁగ నిత్యసుఖము వచ్చిన రానీ
@@ -1929,32 +1794,29 @@
 చలియింపఁడు బోధ గన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('కొ', '|'), ('ని', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ము', '|'), ('రా', 'U'), ('నీ', 'U'), ('వ', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('రా', 'U'), ('నీ', 'U'), ('న', '|'), ('ల', '|'), ('కు', '|'), ('వ', '|'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('ని', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('చ', '|'), ('లి', '|'), ('యిం', 'U'), ('ప', '|'), ('డు', '|'), ('బో', 'U'), ('ధ', '|'), ('గ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>చాలా లోకులు నగనీ 
 వాలాయము కీడు మేలు వచ్చిన రానీ
@@ -1962,32 +1824,29 @@
 జాలిం బడఁ డాత్మఁ గన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('లా', 'U'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('న', '|'), ('గ', '|'), ('నీ', 'U'), ('వా', 'U'), ('లా', 'U'), ('య', '|'), ('ము', '|'), ('కీ', 'U'), ('డు', '|'), ('మే', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('రా', 'U'), ('నీ', 'U'), ('యే', 'U'), ('లా', 'U'), ('గై', 'U'), ('న', '|'), ('ను', '|'), ('బు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('జా', 'U'), ('లిం', 'U'), ('బ', '|'), ('డ', '|'), ('డా', 'U'), ('త్మ', '|'), ('గ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>బాలుఁడుగానీ భోగ 
 స్త్రీలోలుఁడుగాని విషయశీలుఁడు గానీ
@@ -1995,32 +1854,29 @@
 జాలదె ముక్తిని గనంగ సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('లు', '|'), ('డు', '|'), ('గా', 'U'), ('నీ', 'U'), ('భో', 'U'), ('గ', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లు', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('శీ', 'U'), ('లు', '|'), ('డు', '|'), ('గా', 'U'), ('నీ', 'U'), ('మే', 'U'), ('లై', 'U'), ('న', '|'), ('బో', 'U'), ('ధ', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('దె', '|'), ('ము', 'U'), ('క్తి', '|'), ('ని', '|'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>విత్తపరాయణుఁ డయినన్‌ 
 మత్తచకోరాక్షులందు మగ్నుండైన\న్‌
@@ -2028,32 +1884,29 @@
 సత్తామాత్రంబు గనును సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్త', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణు', '|'), ('డ', '|'), ('యి', '|'), ('నన్', 'U'), ('మ', 'U'), ('త్త', '|'), ('చ', '|'), ('కో', 'U'), ('రా', 'U'), ('క్షు', '|'), ('లం', 'U'), ('దు', '|'), ('మ', 'U'), ('గ్నుం', 'U'), ('డై', 'U'), ('నన్', 'U'), ('సూ', 'U'), ('త్త', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డె', '|'), ('గా', 'U'), ('దా', 'U'), ('స', 'U'), ('త్తా', 'U'), ('మా', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గ', '|'), ('ను', '|'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>పంచావస్థలఁ దగిలియుఁ 
 బంచావస్థలను గడచు ప్రాజ్ఞుండు జగ
@@ -2061,32 +1914,29 @@
 సంచారము సేయు నన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('చా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('ల', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('యు', '|'), ('బం', 'U'), ('చా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('డ', '|'), ('చు', 'U'), ('ప్రా', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వం', 'U'), ('చ', '|'), ('కు', '|'), ('డై', 'U'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('సం', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>పిప్పలర నాత్మసుఖముల 
 తెప్పం దేలేటియోగిఁ దెలియక తమలో
@@ -2094,32 +1944,29 @@
 చప్పనఁగాఁ జూతు రన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('పి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ర', '|'), ('నా', 'U'), ('త్మ', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('తె', 'U'), ('ప్పం', 'U'), ('దే', 'U'), ('లే', 'U'), ('టి', '|'), ('యో', 'U'), ('గి', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('త', '|'), ('మ', '|'), ('లో', 'U'), ('న', 'U'), ('ప్పు', '|'), ('రు', '|'), ('షుం', 'U'), ('గ', '|'), ('ని', '|'), ('క', '|'), ('ర్ము', '|'), ('లు', '|'), ('చ', 'U'), ('ప్ప', '|'), ('న', '|'), ('గా', 'U'), ('జూ', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>నిత్యానిత్యము లెఱుఁగక 
 నిత్యముఁ జేపట్టుబుధుల నిందించిన నా
@@ -2127,32 +1974,29 @@
 సత్యం బిది వినగదన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('త్యా', 'U'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('బు', '|'), ('ధు', '|'), ('ల', '|'), ('నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('పా', 'U'), ('లౌ', 'U'), ('మ', 'U'), ('ర్తు', '|'), ('డు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బి', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>వేసాలెల్లయు భువిలో 
 గ్రాసాలకెకాక ముక్తికాంక్షకు నేలా
@@ -2160,32 +2004,29 @@
 చ్ఛాసంచారుఁడుగదన్న ఘనసంపన్నా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('సా', 'U'), ('లె', 'U'), ('ల్ల', '|'), ('యు', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('సా', 'U'), ('ల', '|'), ('కె', '|'), ('కా', 'U'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('కాం', 'U'), ('క్ష', '|'), ('కు', '|'), ('నే', 'U'), ('లా', 'U'), ('వా', 'U'), ('సి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('యో', 'U'), ('గి', '|'), ('య', '|'), ('థే', 'U'), ('చ్ఛా', 'U'), ('సం', 'U'), ('చా', 'U'), ('రు', '|'), ('డు', '|'), ('గ', '|'), ('ద', 'U'), ('న్న', '|'), ('ఘ', '|'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>ఊరెఱిఁగిన బాపనికి 
 వారక జన్నిదముఁ జూపవలెనా తద్‌జ్ఞుం
@@ -2193,32 +2034,29 @@
 సారిని ఘను లెంతు రన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ఊ', 'U'), ('రె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వా', 'U'), ('ర', '|'), ('క', '|'), ('జ', 'U'), ('న్ని', '|'), ('ద', '|'), ('ము', '|'), ('జూ', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('త', 'U'), ('ద్జ్ఞుం', 'U'), ('డే', 'U'), ('రీ', 'U'), ('తి', '|'), ('ను', 'U'), ('న్న', '|'), ('ని', 'U'), ('స్సం', 'U'), ('సా', 'U'), ('రి', '|'), ('ని', '|'), ('ఘ', '|'), ('ను', '|'), ('లెం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>అద్వైతభావ మెఱుఁగక 
 విద్వాంసుల మనుచు నాత్మవేత్తలవలెనే
@@ -2226,32 +2064,29 @@
 సద్వర్తన మెంచరన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ద్వై', 'U'), ('త', '|'), ('భా', 'U'), ('వ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('త్మ', '|'), ('వే', 'U'), ('త్త', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('య', 'U'), ('ద్వా', 'U'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('స', 'U'), ('ద్వ', 'U'), ('ర్త', '|'), ('న', '|'), ('మెం', 'U'), ('చ', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>వదలరు విషయము లెచటను 
 మెదలరు సజ్జనులకడను మిధ్యాజ్ఞానుల్‌
@@ -2259,32 +2094,29 @@
 జదువులుపచరింతు రన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('ల', '|'), ('రు', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లె', '|'), ('చ', '|'), ('ట', '|'), ('ను', '|'), ('మె', '|'), ('ద', '|'), ('ల', '|'), ('రు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('ను', '|'), ('మి', 'U'), ('ధ్యా', 'U'), ('జ్ఞా', 'U'), ('నుల్', 'U'), ('చ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('మ', '|'), ('ని', '|'), ('య', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('తో', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('లు', '|'), ('ప', '|'), ('చ', '|'), ('రిం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>జడివాన కురిసినట్టులు 
 విడువక వాదింతు రాత్మవేత్తల మనుచున్‌
@@ -2292,32 +2124,29 @@
 జడమతు లిలఁ గొంద ఱన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('డి', '|'), ('వా', 'U'), ('న', '|'), ('కు', '|'), ('రి', '|'), ('సి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('వా', 'U'), ('దిం', 'U'), ('తు', '|'), ('రా', 'U'), ('త్మ', '|'), ('వే', 'U'), ('త్త', '|'), ('ల', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('గు', '|'), ('డి', '|'), ('యె', '|'), ('డ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('జ', '|'), ('డ', '|'), ('మ', '|'), ('తు', '|'), ('లి', '|'), ('ల', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>మన సనఁగా నెఱుఁగక దా 
 మనసునకును సాక్షి యనఁగ మఱి బేలనఁగా
@@ -2325,32 +2154,29 @@
 జనులకు నిది వాద మన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('స', '|'), ('న', '|'), ('గా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('దా', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('సా', 'U'), ('క్షి', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('ఱి', '|'), ('బే', 'U'), ('ల', '|'), ('న', '|'), ('గా', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ర', '|'), ('శూ', 'U'), ('న్యం', 'U'), ('బ', '|'), ('న', '|'), ('గా', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ని', '|'), ('ది', '|'), ('వా', 'U'), ('ద', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>కొందఱు యోగం బనఁగాఁ 
 గొందఱు జ్ఞానం బనంగఁ గొంద ఱఖండా
@@ -2358,32 +2184,29 @@
 సందేహము లెట్లు తీరు సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('యో', 'U'), ('గం', 'U'), ('బ', '|'), ('న', '|'), ('గా', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱు', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బ', '|'), ('నం', 'U'), ('గ', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ఖం', 'U'), ('డా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బ', '|'), ('నం', 'U'), ('గ', '|'), ('నం', 'U'), ('ద', '|'), ('లి', '|'), ('సం', 'U'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('లె', 'U'), ('ట్లు', '|'), ('తీ', 'U'), ('రు', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>తుద మొద లెఱుగక బ్రహ్మం 
 బిది యని యెఱుఁగంగ లేక యేర్పడ సభలన్‌
@@ -2391,32 +2214,29 @@
 చదువులపస లెన్న సున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('ద', '|'), ('మొ', '|'), ('ద', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బి', '|'), ('ది', '|'), ('య', '|'), ('ని', '|'), ('యె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('యే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('స', '|'), ('భ', '|'), ('లన్', 'U'), ('వ', '|'), ('ద', '|'), ('ఱు', '|'), ('చు', '|'), ('ది', '|'), ('రి', '|'), ('గె', '|'), ('డి', '|'), ('య', 'U'), ('య్య', '|'), ('ల', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ల', '|'), ('ప', '|'), ('స', '|'), ('లె', 'U'), ('న్న', '|'), ('సు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>చేతావాతాగొట్టెడి 
 ఘాతుకు లవివేకు లనుచుఁ గని వారలతోఁ
@@ -2424,32 +2244,29 @@
 చాతుర్యధురీణు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('తా', 'U'), ('వా', 'U'), ('తా', 'U'), ('గొ', 'U'), ('ట్టె', '|'), ('డి', '|'), ('ఘా', 'U'), ('తు', '|'), ('కు', '|'), ('ల', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('ల', '|'), ('ను', '|'), ('చు', '|'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('తో', 'U'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('ల', 'U'), ('డ్డ', '|'), ('మా', 'U'), ('డ', '|'), ('రు', '|'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>తనలో నెప్పుడు నుండెడు 
 తనుఁ దెలియఁగలేడు నిన్ను దరమా తెలియం
@@ -2457,32 +2274,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('లో', 'U'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('త', '|'), ('ను', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ర', '|'), ('మా', 'U'), ('తె', '|'), ('లి', '|'), ('యం', 'U'), ('ద', '|'), ('ను', '|'), ('దె', '|'), ('లి', '|'), ('యు', '|'), ('ట', '|'), ('ని', '|'), ('ను', '|'), ('దె', '|'), ('లి', '|'), ('యు', '|'), ('టె', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>దేహమె తా నై యున్నెడ 
 దేహముతోఁగూడఁ గాలితేనే నిజమౌ
@@ -2490,32 +2304,29 @@
 సాహసములు బొంకులన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('హ', '|'), ('మె', '|'), ('తా', 'U'), ('నై', 'U'), ('యు', 'U'), ('న్నె', '|'), ('డ', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('తో', 'U'), ('గూ', 'U'), ('డ', '|'), ('గా', 'U'), ('లి', '|'), ('తే', 'U'), ('నే', 'U'), ('ని', '|'), ('జ', '|'), ('మౌ', 'U'), ('దే', 'U'), ('హా', 'U'), ('త్మ', '|'), ('వా', 'U'), ('ది', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('బొం', 'U'), ('కు', '|'), ('ల', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>దండకమండలులు శిరో
 ముండనము ధరించి నంత మోక్షముగలదా?
@@ -2523,32 +2334,29 @@
 చండిమఁ దెగటార్పకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లు', '|'), ('లు', '|'), ('శి', '|'), ('రో', 'U'), ('ముం', 'U'), ('డ', '|'), ('న', '|'), ('ము', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('మెం', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('లో', 'U'), ('ని', '|'), ('ప', '|'), ('గ', '|'), ('తు', '|'), ('ర', '|'), ('చం', 'U'), ('డి', '|'), ('మ', '|'), ('దె', '|'), ('గ', '|'), ('టా', 'U'), ('ర్ప', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>సన్న్యాసుల మని శాస్త్రో
 పన్యాసముచేయు టెంతపాపము కాదా
@@ -2556,32 +2364,29 @@
 సన్న్యాసము కూడదన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్న్యా', 'U'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('శా', 'U'), ('స్త్రో', 'U'), ('ప', 'U'), ('న్యా', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('టెం', 'U'), ('త', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('కా', 'U'), ('దా', 'U'), ('య', 'U'), ('న్యో', 'U'), ('న్యా', 'U'), ('శ్ర', '|'), ('య', '|'), ('ముం', 'U'), ('డి', '|'), ('న', '|'), ('స', 'U'), ('న్న్యా', 'U'), ('స', '|'), ('ము', '|'), ('కూ', 'U'), ('డ', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>వాదుల నడఁచెడిపెద్దలఁ 
 గాదనఁ గా నేల వట్టికలహం బింతే
@@ -2589,32 +2394,29 @@
 సాదరమతి జాణఁ డన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('దు', '|'), ('ల', '|'), ('న', '|'), ('డ', '|'), ('చె', '|'), ('డి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('వ', 'U'), ('ట్టి', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('బిం', 'U'), ('తే', 'U'), ('ఖే', 'U'), ('దం', 'U'), ('బ', '|'), ('ని', '|'), ('చా', 'U'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('సా', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('జా', 'U'), ('ణ', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>వాదము ఖేదముకొఱకౌ 
 మేదినిఁ గలవిద్య లెల్ల మెతుకులకొఱకౌఁ
@@ -2622,32 +2424,29 @@
 సాదరమతిఁ దెలియ రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ద', '|'), ('ము', '|'), ('ఖే', 'U'), ('ద', '|'), ('ము', '|'), ('కొ', '|'), ('ఱ', '|'), ('కౌ', 'U'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('గ', '|'), ('ల', '|'), ('వి', 'U'), ('ద్య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మె', '|'), ('తు', '|'), ('కు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కౌ', 'U'), ('గా', 'U'), ('ద', '|'), ('ది', '|'), ('ము', 'U'), ('క్తి', '|'), ('ప', '|'), ('థం', 'U'), ('బ', '|'), ('ని', '|'), ('సా', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>వాదము లనఁగా దాతృవి
 వాదము మఱి యంత్రతంత్రవాదములును నీ
@@ -2655,32 +2454,29 @@
 సాదరమతు లెన్నరన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('గా', 'U'), ('దా', 'U'), ('తృ', '|'), ('వి', '|'), ('వా', 'U'), ('ద', '|'), ('ము', '|'), ('మ', '|'), ('ఱి', '|'), ('యం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('వా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('నీ', 'U'), ('జూ', 'U'), ('ద', '|'), ('ము', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('మె', 'U'), ('త్తు', '|'), ('రె', '|'), ('సా', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>ప్రేమమున నాత్మసుఖమం 
 దేమియుఁ బస లేక తత్త్వ మెఱుఁగుదు మనుచున్‌
@@ -2688,32 +2484,29 @@
 సాముల నేమందు మన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ప్రే', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('త్మ', '|'), ('సు', '|'), ('ఖ', '|'), ('మం', 'U'), ('దే', 'U'), ('మి', '|'), ('యు', '|'), ('బ', '|'), ('స', '|'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('దు', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('నే', 'U'), ('మ', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('తి', '|'), ('రి', '|'), ('గె', '|'), ('డి', '|'), ('సా', 'U'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('మం', 'U'), ('దు', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>చేతోగతినెఱిఁగినవా 
 రేతీరున విధినిషేధ మెఱుఁగక యున్నన్‌
@@ -2721,32 +2514,29 @@
 జాతుర్యధురీణు లెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('తో', 'U'), ('గ', '|'), ('తి', '|'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('వా', 'U'), ('రే', 'U'), ('తీ', 'U'), ('రు', '|'), ('న', '|'), ('వి', '|'), ('ధి', '|'), ('ని', '|'), ('షే', 'U'), ('ధ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యు', '|'), ('న్నన్', 'U'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణు', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ఎప్పుడు కర్మముఁ జేసెడి 
 యప్పురుషుఁడు తన్నుఁ గన్న నది చాలించున్‌
@@ -2754,32 +2544,29 @@
 జప్పనియాపిప్పిఁ దిన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('య', 'U'), ('ప్పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('త', 'U'), ('న్ను', '|'), ('గ', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('చా', 'U'), ('లిం', 'U'), ('చున్', 'U'), ('చ', 'U'), ('ప్పి', '|'), ('డి', '|'), ('గా', 'U'), ('దా', 'U'), ('నో', 'U'), ('టి', '|'), ('కి', '|'), ('జ', 'U'), ('ప్ప', '|'), ('ని', '|'), ('యా', 'U'), ('పి', 'U'), ('ప్పి', '|'), ('ది', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>మునిఁగితి మందురు 
 మునుఁగుట మనసో పంచేంద్రియములో మఱి జీవుండో
@@ -2787,32 +2574,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ని', '|'), ('గి', '|'), ('తి', '|'), ('మం', 'U'), ('దు', '|'), ('రు', '|'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('ట', '|'), ('మ', '|'), ('న', '|'), ('సో', 'U'), ('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ము', '|'), ('లో', 'U'), ('మ', '|'), ('ఱి', '|'), ('జీ', 'U'), ('వుం', 'U'), ('డో', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('ట', '|'), ('యె', '|'), ('వ', '|'), ('రో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('దు', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>తానైనం బరిశుద్ధుఁడు 
 మేనైన న్మట్టి బొంకి మేనో తానో
@@ -2820,32 +2604,29 @@
 స్నానం బిఁక నెవరి కన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('నై', 'U'), ('నం', 'U'), ('బ', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధు', '|'), ('డు', '|'), ('మే', 'U'), ('నై', 'U'), ('న', 'U'), ('న్మ', 'U'), ('ట్టి', '|'), ('బొం', 'U'), ('కి', '|'), ('మే', 'U'), ('నో', 'U'), ('తా', 'U'), ('నో', 'U'), ('పూ', 'U'), ('ని', '|'), ('క', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('తీ', 'U'), ('ర్థ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బి', '|'), ('క', '|'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>సూతకము వచ్చె ననుచును 
 నాతలఁ బదినాళ్లు జరపినంతనె తెగునా?
@@ -2853,32 +2634,29 @@
 జాతకము నెఱింగికొన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('బ', '|'), ('ది', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('జ', '|'), ('ర', '|'), ('పి', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('తె', '|'), ('గు', '|'), ('నా', 'U'), ('సూ', 'U'), ('త', '|'), ('క', '|'), ('మే', 'U'), ('కా', 'U'), ('దా', 'U'), ('త', '|'), ('న', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('నె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('కొ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>ముట్టున దొలఁగుదురేమో 
 ముట్టుననే తనువుగాఁక మునుఁగుదు రేమో
@@ -2886,32 +2664,29 @@
 చట్టా మఱిదేహ మెల్ల సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('ట్టు', '|'), ('న', '|'), ('దొ', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('రే', 'U'), ('మో', 'U'), ('ము', 'U'), ('ట్టు', '|'), ('న', '|'), ('నే', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('దు', '|'), ('రే', 'U'), ('మో', 'U'), ('ము', 'U'), ('ట్టు', '|'), ('కు', '|'), ('వె', '|'), ('లి', '|'), ('యై', 'U'), ('తే', 'U'), ('యొ', '|'), ('క', '|'), ('చ', 'U'), ('ట్టా', 'U'), ('మ', '|'), ('ఱి', '|'), ('దే', 'U'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>కలలో నొక్కఁడు పులిఁ గని 
 పులిచే నణఁగుటను దాను పులియుటబొంకా
@@ -2919,32 +2694,29 @@
 సలలితభక్తిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('లో', 'U'), ('నొ', 'U'), ('క్క', '|'), ('డు', '|'), ('పు', '|'), ('లి', '|'), ('గ', '|'), ('ని', '|'), ('పు', '|'), ('లి', '|'), ('చే', 'U'), ('న', '|'), ('ణ', '|'), ('గు', '|'), ('ట', '|'), ('ను', '|'), ('దా', 'U'), ('ను', '|'), ('పు', '|'), ('లి', '|'), ('యు', '|'), ('ట', '|'), ('బొం', 'U'), ('కా', 'U'), ('క', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>భ్రమదృశ్యజాల మెల్లను 
 భ్రమ లోకములెల్ల మిగుల భ్రమ కర్మంబున్‌
@@ -2952,32 +2724,29 @@
 సమరసమౌ దత్త్వ మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('భ్ర', '|'), ('మ', '|'), ('దృ', 'U'), ('శ్య', '|'), ('జా', 'U'), ('ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ను', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మి', '|'), ('గు', '|'), ('ల', 'U'), ('భ్ర', '|'), ('మ', '|'), ('క', '|'), ('ర్మం', 'U'), ('బున్', 'U'), ('భ్ర', '|'), ('మ', '|'), ('మూ', 'U'), ('ల', '|'), ('మె', '|'), ('యీ', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('మౌ', 'U'), ('ద', 'U'), ('త్త్వ', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>వంశము తన కెక్కడిది చి
 దంశము లౌఁ గాకయున్నఁ గద జీవులకున్‌
@@ -2985,32 +2754,29 @@
 సంశయములు విడువకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('శ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('కె', 'U'), ('క్క', '|'), ('డి', '|'), ('ది', '|'), ('చి', '|'), ('దం', 'U'), ('శ', '|'), ('ము', '|'), ('లౌ', 'U'), ('గా', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('గ', '|'), ('ద', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కున్', 'U'), ('సం', 'U'), ('శు', 'U'), ('ద్ధి', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('దు', '|'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>తనమనసే తా నాయెను 
 తనమనసే తన్నుఁ దెలియ దత్త్వం బయ్యెన్‌
@@ -3018,32 +2784,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('తా', 'U'), ('నా', 'U'), ('యె', '|'), ('ను', '|'), ('త', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('త', 'U'), ('న్ను', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('ద', 'U'), ('త్త్వం', 'U'), ('బ', '|'), ('య్యెన్', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('న', '|'), ('కు', '|'), ('సా', 'U'), ('క్షి', '|'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>మనసే జీవుం డనగను 
 మనసే తనచేష్ట లుడిగి మఱితత్త్వమగున్‌
@@ -3051,32 +2814,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('సే', 'U'), ('జీ', 'U'), ('వుం', 'U'), ('డ', '|'), ('న', '|'), ('గ', '|'), ('ను', '|'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('త', '|'), ('న', '|'), ('చే', 'U'), ('ష్ట', '|'), ('లు', '|'), ('డి', '|'), ('గి', '|'), ('మ', '|'), ('ఱి', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మ', '|'), ('గున్', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('ము', 'U'), ('క్తు', '|'), ('డు', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>పురుషునకుఁ బ్రకృతి వేఱా 
 సరిసమ మని తెలిసియుంట సహజము గాదా
@@ -3084,32 +2844,29 @@
 శరణాగతసుప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షు', '|'), ('న', '|'), ('కు', 'U'), ('బ్ర', '|'), ('కృ', '|'), ('తి', '|'), ('వే', 'U'), ('ఱా', 'U'), ('స', '|'), ('రి', '|'), ('స', '|'), ('మ', '|'), ('మ', '|'), ('ని', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('యుం', 'U'), ('ట', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('ము', '|'), ('గా', 'U'), ('దా', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('వి', '|'), ('వ', 'U'), ('ర్త', '|'), ('మె', 'U'), ('ప్ర', '|'), ('కృ', '|'), ('తి', '|'), ('యు', '|'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('త', '|'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>సత్తనఁ బరఁగును బురుషుఁడు 
 సత్తనఁగాఁ బ్రకృతి తోఁచి సమసెడు కతనన్‌
@@ -3117,32 +2874,29 @@
 సత్తున కదిగూడ దన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('త్త', '|'), ('న', '|'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('ను', '|'), ('బు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('స', 'U'), ('త్త', '|'), ('న', '|'), ('గా', 'U'), ('బ్ర', '|'), ('కృ', '|'), ('తి', '|'), ('తో', 'U'), ('చి', '|'), ('స', '|'), ('మ', '|'), ('సె', '|'), ('డు', '|'), ('క', '|'), ('త', '|'), ('నన్', 'U'), ('స', 'U'), ('త్తు', '|'), ('న', '|'), ('కే', 'U'), ('ని', 'U'), ('త్య', 'U'), ('త్వ', '|'), ('మ', '|'), ('స', 'U'), ('త్తు', '|'), ('న', '|'), ('క', '|'), ('ది', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>సత్తును నెఱుఁగ దస త్తా
 సత్తును నెఱుఁగంగలే దసత్తును నిఁక నీ
@@ -3150,32 +2904,29 @@
 సత్తైకను జీవుఁ డన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('త్తు', '|'), ('ను', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('ద', '|'), ('స', 'U'), ('త్తా', 'U'), ('స', 'U'), ('త్తు', '|'), ('ను', '|'), ('నె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గ', '|'), ('లే', 'U'), ('ద', '|'), ('స', 'U'), ('త్తు', '|'), ('ను', '|'), ('ని', '|'), ('క', '|'), ('నీ', 'U'), ('స', 'U'), ('త్తా', 'U'), ('స', 'U'), ('త్త', '|'), ('ల', '|'), ('ద', '|'), ('గ', '|'), ('స', '|'), ('ద', '|'), ('స', 'U'), ('త్తై', 'U'), ('క', '|'), ('ను', '|'), ('జీ', 'U'), ('వు', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>కనరా దన్నను శూన్యము 
 కనవచ్చు నటన్న జడము గా దది వెలిగా
@@ -3183,32 +2934,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('రా', 'U'), ('ద', 'U'), ('న్న', '|'), ('ను', '|'), ('శూ', 'U'), ('న్య', '|'), ('ము', '|'), ('క', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ట', 'U'), ('న్న', '|'), ('జ', '|'), ('డ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('ది', '|'), ('వె', '|'), ('లి', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('వే', 'U'), ('ద్య', '|'), ('ము', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>లక్షణ మెఱుఁగనియోగవ 
 లక్షణ మను మతనిమాట లవి ప్రల్లదముల్‌
@@ -3216,32 +2964,29 @@
 చక్షణుఁడా కాఁడు సున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('యో', 'U'), ('గ', '|'), ('వ', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మ', '|'), ('ను', '|'), ('మ', '|'), ('త', '|'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('వి', 'U'), ('ప్ర', 'U'), ('ల్ల', '|'), ('ద', '|'), ('ముల్', 'U'), ('ద', 'U'), ('క్ష', '|'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('వి', '|'), ('చ', 'U'), ('క్ష', '|'), ('ణు', '|'), ('డా', 'U'), ('కా', 'U'), ('డు', '|'), ('సు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>నష్టపదార్థం బగునీ 
 సృష్టిని నుపసంహరించి చిన్మయ నంత
@@ -3249,32 +2994,29 @@
 స్రష్టతనం బేటి కన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('ష్ట', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గు', '|'), ('నీ', 'U'), ('సృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('ను', '|'), ('ప', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('చి', 'U'), ('న్మ', '|'), ('య', '|'), ('నం', 'U'), ('త', '|'), ('ర్దృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', 'U'), ('స్ర', 'U'), ('ష్ట', '|'), ('త', '|'), ('నం', 'U'), ('బే', 'U'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>తోరంబై యోగీంద్రవిహా
 రంబై విమలచిన్మయాకారం బై
@@ -3282,32 +3024,29 @@
 సారంబై వెలుఁగు నన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('తో', 'U'), ('రం', 'U'), ('బై', 'U'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('హా', 'U'), ('రం', 'U'), ('బై', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('చి', 'U'), ('న్మ', '|'), ('యా', 'U'), ('కా', 'U'), ('రం', 'U'), ('బై', 'U'), ('ధీ', 'U'), ('రం', 'U'), ('బై', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('ము', '|'), ('సా', 'U'), ('రం', 'U'), ('బై', 'U'), ('వె', '|'), ('లు', '|'), ('గు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>చింతించి యోగి మోక్షా
 నంతసుఖం బొదువఁ జక్షురగ్రంబునఁ దా
@@ -3315,32 +3054,29 @@
 సంతతమును నాత్మఁ గన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('చిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('యో', 'U'), ('గి', '|'), ('మో', 'U'), ('క్షా', 'U'), ('నం', 'U'), ('త', '|'), ('సు', '|'), ('ఖం', 'U'), ('బొ', '|'), ('దు', '|'), ('వ', '|'), ('జ', 'U'), ('క్షు', '|'), ('ర', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('నం', 'U'), ('త', '|'), ('ర్దృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('ను', '|'), ('నా', 'U'), ('త్మ', '|'), ('గ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>తన కనుభవంబు చదువుల 
 వినుకులనే కలుగు ననెడివెఱ్ఱియుఁ గలఁడే
@@ -3348,32 +3084,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('క', '|'), ('ను', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ల', '|'), ('వి', '|'), ('ను', '|'), ('కు', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('లు', '|'), ('గు', '|'), ('న', '|'), ('నె', '|'), ('డి', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('యు', '|'), ('గ', '|'), ('ల', '|'), ('డే', 'U'), ('య', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('వే', 'U'), ('ద్య', '|'), ('ము', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>కడుధీరుం డై యోగము 
 తొడిబడ, ద న్నెవ్వరైన దూషించినఁ దా
@@ -3381,32 +3114,29 @@
 జడియక సాధించు నన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('ధీ', 'U'), ('రుం', 'U'), ('డై', 'U'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('తొ', '|'), ('డి', '|'), ('బ', '|'), ('డ', '|'), ('ద', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('దూ', 'U'), ('షిం', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('నొ', '|'), ('డ', '|'), ('లి', '|'), ('కి', '|'), ('నే', 'U'), ('పో', 'U'), ('టొ', '|'), ('ద', '|'), ('వి', '|'), ('న', '|'), ('జ', '|'), ('డి', '|'), ('య', '|'), ('క', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>తెఱచియుఁ దెఱవనికన్నులు 
 మఱచియు మఱువనితలంపు మ్రాన్పడుమేనున్‌
@@ -3414,32 +3144,29 @@
 చరితార్థుఁడు నిలుతునన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('ఱ', '|'), ('చి', '|'), ('యు', '|'), ('దె', '|'), ('ఱ', '|'), ('వ', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('యు', '|'), ('మ', '|'), ('ఱు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('మ్రా', 'U'), ('న్ప', '|'), ('డు', '|'), ('మే', 'U'), ('నున్', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('చి', '|'), ('దా', 'U'), ('కా', 'U'), ('శ', 'U'), ('స్థి', '|'), ('తి', '|'), ('చ', '|'), ('రి', '|'), ('తా', 'U'), ('ర్థు', '|'), ('డు', '|'), ('ని', '|'), ('లు', '|'), ('తు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>నలుగురు నడచెడుత్రోవను 
 బలిమిని లోకంబు నడచుఁ బ్రాజ్ఞుం డైనన్‌
@@ -3447,32 +3174,29 @@
 జలియింపక నడచు నన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('లు', '|'), ('గు', '|'), ('రు', '|'), ('న', '|'), ('డ', '|'), ('చె', '|'), ('డు', 'U'), ('త్రో', 'U'), ('వ', '|'), ('ను', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('ని', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('డ', '|'), ('చు', 'U'), ('బ్రా', 'U'), ('జ్ఞుం', 'U'), ('డై', 'U'), ('నన్', 'U'), ('న', '|'), ('లు', '|'), ('వు', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', 'U'), ('త్రో', 'U'), ('వ', '|'), ('ల', '|'), ('జ', '|'), ('లి', '|'), ('యిం', 'U'), ('ప', '|'), ('క', '|'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('న', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>మనసెక్కడ మాయెక్కడ? 
 తనువెక్కడ? ముప్పదాఱుతత్త్వము లెచటన్‌
@@ -3480,32 +3204,29 @@
 జనునకు దాసప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('సె', 'U'), ('క్క', '|'), ('డ', '|'), ('మా', 'U'), ('యె', 'U'), ('క్క', '|'), ('డ', '|'), ('త', '|'), ('ను', '|'), ('వె', 'U'), ('క్క', '|'), ('డ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('దా', 'U'), ('ఱు', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లె', '|'), ('చ', '|'), ('టన్', 'U'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('జ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('దా', 'U'), ('స', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>వెలిచూపును లోచూపును 
 వెలిగాఁ దన్మధ్యమునను వెలిఁగెడితత్త్వం
@@ -3513,32 +3234,29 @@
 సలలితుఁ డగుముక్తుఁ డన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('లి', '|'), ('చూ', 'U'), ('పు', '|'), ('ను', '|'), ('లో', 'U'), ('చూ', 'U'), ('పు', '|'), ('ను', '|'), ('వె', '|'), ('లి', '|'), ('గా', 'U'), ('ద', 'U'), ('న్మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('వె', '|'), ('లి', '|'), ('గె', '|'), ('డి', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బ', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('య', '|'), ('త', '|'), ('డే', 'U'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ము', 'U'), ('క్తు', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>ఇద్దఱు నొకటైనను గడ 
 మిద్దఱుఁ దా మేకమగుచు నేకాంతముగా
@@ -3546,32 +3264,29 @@
 సద్దేమియు సేయ రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('డ', '|'), ('మి', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('దా', 'U'), ('మే', 'U'), ('క', '|'), ('మ', '|'), ('గు', '|'), ('చు', '|'), ('నే', 'U'), ('కాం', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ని', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('ని', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('స', 'U'), ('ద్దే', 'U'), ('మి', '|'), ('యు', '|'), ('సే', 'U'), ('య', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>మిక్కిలి సంసారయినను 
 నెక్కడియోగము రుచించు నెక్కుడుశైత్యం
@@ -3579,32 +3294,29 @@
 జక్కెరపొడిఁ దిన్న నెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('నె', 'U'), ('క్క', '|'), ('డి', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('రు', '|'), ('చిం', 'U'), ('చు', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('శై', 'U'), ('త్యం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('న', '|'), ('నో', 'U'), ('టి', '|'), ('కి', '|'), ('జే', 'U'), ('ద', '|'), ('గు', '|'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('పొ', '|'), ('డి', '|'), ('ది', 'U'), ('న్న', '|'), ('నె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>నాలుగుత్రోవలనడుమను 
 శ్రీలీలను వ్రేలుచున్న చిహ్నంబులఁ దా
@@ -3612,32 +3324,29 @@
 శాలుండౌ ముక్తుఁడన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('లు', '|'), ('గు', 'U'), ('త్రో', 'U'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('డు', '|'), ('మ', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('ను', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('చి', 'U'), ('హ్నం', 'U'), ('బు', '|'), ('ల', '|'), ('దా', 'U'), ('నా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చి', '|'), ('న', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('వి', '|'), ('శా', 'U'), ('లుం', 'U'), ('డౌ', 'U'), ('ము', 'U'), ('క్తు', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>పందలగుచెనటిమనుజుల 
 కందంబుగ రాజయోగ మలవడు నేలా
@@ -3645,32 +3354,29 @@
 జందనగుణ మేటికన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('ద', '|'), ('ల', '|'), ('గు', '|'), ('చె', '|'), ('న', '|'), ('టి', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('కం', 'U'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('వ', '|'), ('డు', '|'), ('నే', 'U'), ('లా', 'U'), ('పం', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('మే', 'U'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>ఇప్పదవు లందనేరని 
 మొప్పెలకుం దెలుప వశమె ముందఱగానే
@@ -3678,32 +3384,29 @@
 జప్ప ట్లిడి నగుదురన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('వు', '|'), ('లం', 'U'), ('ద', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('మొ', 'U'), ('ప్పె', '|'), ('ల', '|'), ('కుం', 'U'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('గా', 'U'), ('నే', 'U'), ('త', 'U'), ('ప్పు', '|'), ('లు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('చు', '|'), ('మ', '|'), ('ఱి', '|'), ('చే', 'U'), ('జ', 'U'), ('ప్ప', 'U'), ('ట్లి', '|'), ('డి', '|'), ('న', '|'), ('గు', '|'), ('దు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>కను జెదర మనసుఁ జెదరం
 గను జెదరు న్సుఖము చెదరుఁ గాలియుఁ జెదరున్‌
@@ -3711,32 +3414,29 @@
 గనవలె సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ను', '|'), ('జె', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('జె', '|'), ('ద', '|'), ('రం', 'U'), ('గ', '|'), ('ను', '|'), ('జె', '|'), ('ద', '|'), ('రు', 'U'), ('న్సు', '|'), ('ఖ', '|'), ('ము', '|'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('గా', 'U'), ('లి', '|'), ('యు', '|'), ('జె', '|'), ('ద', '|'), ('రున్', 'U'), ('గ', '|'), ('ను', '|'), ('జె', '|'), ('ద', '|'), ('ర', '|'), ('క', '|'), ('త', '|'), ('ను', '|'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>పాళ్ళును బంపును దొడవులు 
 నూళ్ళును మును చన్నవారు నూర్జితులై రా
@@ -3744,32 +3444,29 @@
 సాళ్ళని ఘను లెన్న రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ళ్ళు', '|'), ('ను', '|'), ('బం', 'U'), ('పు', '|'), ('ను', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('నూ', 'U'), ('ళ్ళు', '|'), ('ను', '|'), ('ము', '|'), ('ను', '|'), ('చ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రు', '|'), ('నూ', 'U'), ('ర్జి', '|'), ('తు', '|'), ('లై', 'U'), ('రా', 'U'), ('యో', 'U'), ('ళ్ళ', '|'), ('రి', '|'), ('గి', '|'), ('రో', 'U'), ('ళ్ళ', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('సా', 'U'), ('ళ్ళ', '|'), ('ని', '|'), ('ఘ', '|'), ('ను', '|'), ('లె', 'U'), ('న్న', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>ముందు వెనుకెఱుఁగ కాటల 
 సందడిఁ బడి మోక్షసుఖము సాధింపనియా
@@ -3777,32 +3474,29 @@
 చందంబో యెఱుఁగ మన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('ముం', 'U'), ('దు', '|'), ('వె', '|'), ('ను', '|'), ('కె', '|'), ('ఱు', '|'), ('గ', '|'), ('కా', 'U'), ('ట', '|'), ('ల', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('బ', '|'), ('డి', '|'), ('మో', 'U'), ('క్ష', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('ని', '|'), ('యా', 'U'), ('పం', 'U'), ('ద', '|'), ('ల', 'U'), ('వ్ర', '|'), ('తు', '|'), ('కు', '|'), ('లు', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('చం', 'U'), ('దం', 'U'), ('బో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('మ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>వెలిచూపును లోచూపును 
 గలయంగా నొక్కచూపుఁగా జూచిన యా
@@ -3810,32 +3504,29 @@
 సలలితసుజ్ఞాని యన్న!సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('లి', '|'), ('చూ', 'U'), ('పు', '|'), ('ను', '|'), ('లో', 'U'), ('చూ', 'U'), ('పు', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('నొ', 'U'), ('క్క', '|'), ('చూ', 'U'), ('పు', '|'), ('గా', 'U'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్రు', '|'), ('డె', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('య', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>చిత్తమునం దమ్మెఱుఁగక 
 తెత్తురు తమచేటు నత్త తిత్తు న్మత్తున్‌
@@ -3843,32 +3534,29 @@
 సత్తులవా? సుప్రసన్న!సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('మ్మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('తె', 'U'), ('త్తు', '|'), ('రు', '|'), ('త', '|'), ('మ', '|'), ('చే', 'U'), ('టు', '|'), ('న', 'U'), ('త్త', '|'), ('తి', 'U'), ('త్తు', 'U'), ('న్మ', '|'), ('త్తున్', 'U'), ('మొ', 'U'), ('త్త', '|'), ('ము', '|'), ('గ', '|'), ('నూ', 'U'), ('డి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('స', 'U'), ('త్తు', '|'), ('ల', '|'), ('వా', 'U'), ('సు', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>సంపద లెఱుఁగక తామే 
 సంపదగలవార మనుచు జడు లిలఁ దమలో
@@ -3876,32 +3564,29 @@
 సంపదలే చూతు రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('తా', 'U'), ('మే', 'U'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('జ', '|'), ('డు', '|'), ('లి', '|'), ('ల', '|'), ('ద', '|'), ('మ', '|'), ('లో', 'U'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('వె', '|'), ('లి', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లే', 'U'), ('చూ', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>నేరనిజనులను బట్టుక 
 పోరాడఁగ నేల పల్కపోతారాటం
@@ -3909,32 +3594,29 @@
 చారము మదిఁ బుట్టదన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('ర', '|'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('పో', 'U'), ('రా', 'U'), ('డ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('ప', 'U'), ('ల్క', '|'), ('పో', 'U'), ('తా', 'U'), ('రా', 'U'), ('టం', 'U'), ('బే', 'U'), ('రీ', 'U'), ('తి', '|'), ('దె', 'U'), ('ల్ప', '|'), ('గ', '|'), ('తి', '|'), ('కి', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('మ', '|'), ('ది', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>శోధింపరు తత్త్వజ్ఞులు 
 నీధరఁ దమతోడిసరికి నీదుర్మనుజుల్‌
@@ -3942,32 +3624,29 @@
 సాధువు లని యెంతు రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('రు', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('నీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ద', '|'), ('మ', '|'), ('తో', 'U'), ('డి', '|'), ('స', '|'), ('రి', '|'), ('కి', '|'), ('నీ', 'U'), ('దు', '|'), ('ర్మ', '|'), ('ను', '|'), ('జుల్', 'U'), ('మే', 'U'), ('ధా', 'U'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('సా', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', '|'), ('ని', '|'), ('యెం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>పుత్రులు మిత్రులు బంధుక
 ళత్రములనువారు ముక్తిలలనకు నరునిన్‌
@@ -3975,32 +3654,29 @@
 శత్రులుగా వార లెన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('పు', 'U'), ('త్రు', '|'), ('లు', '|'), ('మి', 'U'), ('త్రు', '|'), ('లు', '|'), ('బం', 'U'), ('ధు', '|'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('వా', 'U'), ('రు', '|'), ('ము', 'U'), ('క్తి', '|'), ('ల', '|'), ('ల', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('రు', '|'), ('నిన్', 'U'), ('బా', 'U'), ('త్రు', '|'), ('ని', '|'), ('గా', 'U'), ('నీ', 'U'), ('య', '|'), ('రు', '|'), ('హి', '|'), ('త', '|'), ('శ', 'U'), ('త్రు', '|'), ('లు', '|'), ('గా', 'U'), ('వా', 'U'), ('ర', '|'), ('లె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>సంకల్ప ముడిఁగి తా ని
 స్సంకల్పుం డైనఁ జాలు సద్గతి తడవా
@@ -4008,32 +3684,29 @@
 స్సంకల్పమె మోక్ష మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('క', 'U'), ('ల్ప', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('తా', 'U'), ('ని', 'U'), ('స్సం', 'U'), ('క', 'U'), ('ల్పుం', 'U'), ('డై', 'U'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ద్గ', '|'), ('తి', '|'), ('త', '|'), ('డ', '|'), ('వా', 'U'), ('సం', 'U'), ('క', 'U'), ('ల్ప', '|'), ('మె', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('ని', 'U'), ('స్సం', 'U'), ('క', 'U'), ('ల్ప', '|'), ('మె', '|'), ('మో', 'U'), ('క్ష', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>జనుఁడుం జిదమృతరసవార్‌
 థిని చెట్టునఁ గ్రీడ సల్పి తెప్పలఁ దేలున్‌
@@ -4041,32 +3714,29 @@
 సనకాది మునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ను', '|'), ('డుం', 'U'), ('జి', '|'), ('ద', '|'), ('మృ', '|'), ('త', '|'), ('ర', '|'), ('స', '|'), ('వార్', 'U'), ('థి', '|'), ('ని', '|'), ('చె', 'U'), ('ట్టు', '|'), ('న', 'U'), ('గ్రీ', 'U'), ('డ', '|'), ('స', 'U'), ('ల్పి', '|'), ('తె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('లున్', 'U'), ('వి', '|'), ('ను', '|'), ('తు', 'U'), ('చ్ఛ', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('లే', 'U'), ('లా', 'U'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>కీలెఱిఁగి జీవపదముల 
 నోలిన్‌ సమరసము చేసి యోగానందుల్‌
@@ -4074,32 +3744,29 @@
 చాలుగ వర్తింతు రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('కీ', 'U'), ('లె', '|'), ('ఱి', '|'), ('గి', '|'), ('జీ', 'U'), ('వ', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నో', 'U'), ('లిన్', 'U'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('యో', 'U'), ('గా', 'U'), ('నం', 'U'), ('దుల్', 'U'), ('బా', 'U'), ('లో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('పి', '|'), ('శా', 'U'), ('చు', '|'), ('ల', '|'), ('చా', 'U'), ('లు', '|'), ('గ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>సర్వావస్థల నడఁచియు 
 సర్వావస్థల నెఱింగి సర్వసముం డై
@@ -4107,32 +3774,29 @@
 సర్వోత్తముఁ డాతఁ డన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('ల', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('యు', '|'), ('స', 'U'), ('ర్వా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('ల', '|'), ('నె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('స', 'U'), ('ర్వ', '|'), ('స', '|'), ('ముం', 'U'), ('డై', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('ని', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('స', 'U'), ('ర్వో', 'U'), ('త్త', '|'), ('ము', '|'), ('డా', 'U'), ('త', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>తనవారి నెదుటివారిని 
 దనవారిఁగఁ జూడనేర్చుధన్యులు చాలన్‌
@@ -4140,32 +3804,29 @@
 సనకాదిమునిప్రసన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('నె', '|'), ('దు', '|'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('ద', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('గ', '|'), ('జూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లు', '|'), ('చా', 'U'), ('లన్', 'U'), ('ఘ', '|'), ('న', '|'), ('కీ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('చే', 'U'), ('మిం', 'U'), ('తు', '|'), ('రు', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>నిత్యానిత్యవివేకము 
 సత్యనుపమశీలుఁ డెఱుఁగు నాతఁడు సుజన
@@ -4173,32 +3834,29 @@
 సత్యం బిది వినఁగదన్న? సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('త్యా', 'U'), ('ని', 'U'), ('త్య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('శీ', 'U'), ('లు', '|'), ('డె', '|'), ('ఱు', '|'), ('గు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('సు', '|'), ('జ', '|'), ('న', 'U'), ('స్తు', 'U'), ('త్యు', '|'), ('డు', '|'), ('జీ', 'U'), ('వ', 'U'), ('న్ము', 'U'), ('క్తు', '|'), ('డు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బి', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>కూడదు గతి సంసారికి 
 బూడిదలో గచ్చకాయ పొరలినభంగి\న్‌
@@ -4206,32 +3864,29 @@
 జాడ యెఱిఁగి నడువ రన్న! సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('డ', '|'), ('దు', '|'), ('గ', '|'), ('తి', '|'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('కి', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('లో', 'U'), ('గ', 'U'), ('చ్చ', '|'), ('కా', 'U'), ('య', '|'), ('పొ', '|'), ('ర', '|'), ('లి', '|'), ('న', '|'), ('భం', 'U'), ('గిన్', 'U'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('వీ', 'U'), ('డు', '|'), ('ను', '|'), ('దా', 'U'), ('నై', 'U'), ('జా', 'U'), ('డ', '|'), ('యె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('ర', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>పాపపువాసనవిషయము 
 కాపాడుచురాగ నరుఁడు గడఁవగఁగలఁడా?
@@ -4239,32 +3894,29 @@
 చాపల్యము మానకున్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('పు', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('కా', 'U'), ('పా', 'U'), ('డు', '|'), ('చు', '|'), ('రా', 'U'), ('గ', '|'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('గ', '|'), ('డ', '|'), ('వ', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('డా', 'U'), ('యే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('గు', 'U'), ('హ్యో', 'U'), ('ద', '|'), ('ర', '|'), ('చా', 'U'), ('ప', 'U'), ('ల్య', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>సాధనచతుష్టయంబున 
 సాధారణలీలఁ దనరి సర్వేంద్రియముల్‌
@@ -4272,32 +3924,29 @@
 సాధించినముక్తుఁ డన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ధ', '|'), ('న', '|'), ('చ', '|'), ('తు', 'U'), ('ష్ట', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('సా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ణ', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('రి', '|'), ('స', 'U'), ('ర్వేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ముల్', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ని', '|'), ('జ', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('ని', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('క్తు', '|'), ('డ', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>ఉద్యోగంబునఁ బురుషుఁడు 
 సద్యోగముఁ జలుపవలయు సవిశేషముగా
@@ -4305,32 +3954,29 @@
 సద్యోముక్తుఁడు గదన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('స', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('ము', '|'), ('జ', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('గా', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('ని', '|'), ('ధి', '|'), ('య', '|'), ('గు', '|'), ('న', '|'), ('త', '|'), ('డే', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('ము', 'U'), ('క్తు', '|'), ('డు', '|'), ('గ', '|'), ('ద', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>బోధించినగురువులచే 
 సాధింపను నేర్పు గలిగి సన్నుతు లగుచున్‌
@@ -4338,32 +3984,29 @@
 సాధకమున బుధులు సుమ్ము సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('చే', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('ను', '|'), ('నే', 'U'), ('ర్పు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('స', 'U'), ('న్ను', '|'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('చున్', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('రు', '|'), ('గ', '|'), ('లి', '|'), ('యు', '|'), ('దు', '|'), ('ర', '|'), ('పు', '|'), ('డే', 'U'), ('సా', 'U'), ('ధ', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('సు', 'U'), ('మ్ము', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>ఆతురుఁ డై తను నడిగిన 
 యాతనికిం దెలుపవలయు నన్యులు వింటే
@@ -4371,32 +4014,29 @@
 జ్జాతులకే యోగ మెన్న సంపఁగిమన్నా!</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('తు', '|'), ('రు', '|'), ('డై', 'U'), ('త', '|'), ('ను', '|'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('కిం', 'U'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', 'U'), ('న్యు', '|'), ('లు', '|'), ('విం', 'U'), ('టే', 'U'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('వం', 'U'), ('పు', '|'), ('లు', '|'), ('ను', '|'), ('సు', '|'), ('హృ', 'U'), ('జ్జా', 'U'), ('తు', '|'), ('ల', '|'), ('కే', 'U'), ('యో', 'U'), ('గ', '|'), ('మె', 'U'), ('న్న', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('మ', 'U'), ('న్నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
         <is>
           <t>మందేహామందౌషధ 
 మెందు న్సరిలేని దైవ మిలలో సత్యా
@@ -4404,17 +4044,17 @@
 మందఱము సుఖంబు లంది యలరుద మెలమిన్‌.</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sampangimanna</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>sampangimanna</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
         <is>
           <t>[('మం', 'U'), ('దే', 'U'), ('హా', 'U'), ('మం', 'U'), ('దౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('మెం', 'U'), ('దు', 'U'), ('న్స', '|'), ('రి', '|'), ('లే', 'U'), ('ని', '|'), ('దై', 'U'), ('వ', '|'), ('మి', '|'), ('ల', '|'), ('లో', 'U'), ('స', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('జ', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('త', '|'), ('మం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('లం', 'U'), ('ది', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('ద', '|'), ('మె', '|'), ('ల', '|'), ('మి', '|')]</t>
         </is>
